--- a/testData.xlsx
+++ b/testData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10D45A-5A13-47B6-A253-36DA8B077614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>firstname</t>
   </si>
@@ -22,26 +23,53 @@
     <t>lastname</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
     <t>roronoa</t>
   </si>
   <si>
     <t>zoro</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,35 +427,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
